--- a/plan.xlsx
+++ b/plan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>Time</t>
   </si>
@@ -428,6 +428,15 @@
       <t xml:space="preserve">What is R and Rstudio, R scripts, the command line, the help function and the R community. How R is organized.
 </t>
     </r>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
   </si>
 </sst>
 </file>
@@ -867,6 +876,7 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -876,7 +886,6 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1334,7 +1343,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -1351,7 +1360,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A4" s="47"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="24" t="s">
         <v>9</v>
       </c>
@@ -1366,7 +1375,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="30" t="s">
@@ -1383,7 +1392,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="41" t="s">
         <v>9</v>
       </c>
@@ -1428,81 +1437,93 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="12.59765625" customWidth="1"/>
-    <col min="4" max="4" width="17.06640625" customWidth="1"/>
-    <col min="5" max="11" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.53125" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" customWidth="1"/>
+    <col min="5" max="5" width="17.06640625" customWidth="1"/>
+    <col min="6" max="12" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="49"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="46"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="20"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -1511,15 +1532,18 @@
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
@@ -1528,33 +1552,42 @@
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="20"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="20"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -1563,6 +1596,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>Time</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>Thursday</t>
+  </si>
+  <si>
+    <t>See todo</t>
   </si>
 </sst>
 </file>
@@ -745,7 +748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -886,6 +889,7 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1440,7 +1444,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1501,6 +1505,12 @@
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="46"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
   <si>
     <t>Time</t>
   </si>
@@ -880,6 +880,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -889,7 +890,6 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1347,7 +1347,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -1364,7 +1364,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="24" t="s">
         <v>9</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="48" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="30" t="s">
@@ -1396,7 +1396,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="49"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="41" t="s">
         <v>9</v>
       </c>
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1506,11 +1506,14 @@
       <c r="D2" s="20"/>
       <c r="E2" s="46"/>
       <c r="F2" s="46"/>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="47" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="46"/>
-      <c r="I2" s="20"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -1523,6 +1526,16 @@
         <v>44</v>
       </c>
       <c r="D3" s="20"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -1574,7 +1587,15 @@
       <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -1586,7 +1607,6 @@
       <c r="C7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1607,6 +1607,12 @@
       <c r="C7" t="s">
         <v>46</v>
       </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="20"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="20"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
